--- a/chapters/results/Fase 3/A5/F3_A5_v3.xlsx
+++ b/chapters/results/Fase 3/A5/F3_A5_v3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4cc93afe0794efcc/DoutoradoICOMP/Thesis/chapters/results/Fase 3/A5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\DoutoradoICOMP\Thesis\chapters\results\Fase 3\A5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="253" documentId="14_{3C510797-31F3-4E17-81E7-DE8891D5FCA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08E92093-610C-4677-8E14-DEF9EB4A1171}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3EE52C-DC36-4D16-AADB-8BBF2C2779CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{53642AE9-D591-4323-8F60-36E572824654}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{53642AE9-D591-4323-8F60-36E572824654}"/>
   </bookViews>
   <sheets>
     <sheet name="A5 - NT" sheetId="1" r:id="rId1"/>
@@ -458,6 +458,9 @@
     <xf numFmtId="2" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -495,9 +498,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -844,41 +844,41 @@
       <c r="G1" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="38"/>
+      <c r="F5" s="39"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="33"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="14"/>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
@@ -1191,7 +1191,7 @@
         <v>10</v>
       </c>
       <c r="F21" s="19">
-        <f t="shared" ref="F21:I21" si="1">F9*10</f>
+        <f t="shared" ref="F21:H21" si="1">F9*10</f>
         <v>10</v>
       </c>
       <c r="G21" s="19">
@@ -1212,7 +1212,7 @@
         <v>8</v>
       </c>
       <c r="E22" s="22">
-        <f t="shared" ref="E22:I22" si="2">E10*10</f>
+        <f t="shared" ref="E22:H22" si="2">E10*10</f>
         <v>0</v>
       </c>
       <c r="F22" s="22">
@@ -1237,7 +1237,7 @@
         <v>9</v>
       </c>
       <c r="E23" s="19">
-        <f t="shared" ref="E23:I23" si="4">E11*10</f>
+        <f t="shared" ref="E23:H23" si="4">E11*10</f>
         <v>10</v>
       </c>
       <c r="F23" s="19">
@@ -1272,7 +1272,7 @@
         <v>11</v>
       </c>
       <c r="E25" s="22">
-        <f t="shared" ref="E25:I25" si="5">E13*10</f>
+        <f t="shared" ref="E25:H25" si="5">E13*10</f>
         <v>0</v>
       </c>
       <c r="F25" s="22">
@@ -1297,7 +1297,7 @@
         <v>12</v>
       </c>
       <c r="E26" s="19">
-        <f t="shared" ref="E26:I26" si="6">E14*10</f>
+        <f t="shared" ref="E26:H26" si="6">E14*10</f>
         <v>0</v>
       </c>
       <c r="F26" s="19">
@@ -1386,33 +1386,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="14"/>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -1665,31 +1665,31 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="39"/>
+      <c r="C17" s="40"/>
       <c r="D17" s="14"/>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
@@ -1945,8 +1945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036D1512-501F-432F-8DC7-22CD32798998}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1960,32 +1960,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
       <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="39"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -2260,7 +2260,7 @@
         <v>1.2258048896822828</v>
       </c>
       <c r="F13" s="19">
-        <f t="shared" ref="F13:I13" si="1">_xlfn.STDEV.S(F5:F10)</f>
+        <f t="shared" ref="F13:H13" si="1">_xlfn.STDEV.S(F5:F10)</f>
         <v>0.93169499062491246</v>
       </c>
       <c r="G13" s="19">
@@ -2397,20 +2397,20 @@
       <c r="K1" s="10"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="41" t="s">
+      <c r="C8" s="34"/>
+      <c r="D8" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
@@ -2764,18 +2764,18 @@
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="41" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -3020,7 +3020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA893638-D250-4E57-B4CF-8C6151E722C1}">
   <dimension ref="B4:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D4" sqref="D4:I14"/>
     </sheetView>
   </sheetViews>
@@ -3034,20 +3034,20 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="42" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="42" t="s">
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="43" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3058,7 +3058,7 @@
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="15" t="s">
         <v>16</v>
       </c>
@@ -3071,7 +3071,7 @@
       <c r="H5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="42"/>
+      <c r="I5" s="43"/>
     </row>
     <row r="6" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
@@ -3255,23 +3255,23 @@
       <c r="D14" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="33">
         <f t="shared" ref="E14:I14" si="0">AVERAGE(E6:E13)</f>
         <v>0.3131679927718658</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="33">
         <f t="shared" si="0"/>
         <v>0.33586025849528933</v>
       </c>
-      <c r="G14" s="46">
+      <c r="G14" s="33">
         <f t="shared" si="0"/>
         <v>0.61174227457586683</v>
       </c>
-      <c r="H14" s="46">
+      <c r="H14" s="33">
         <f t="shared" si="0"/>
         <v>0.68777598661773742</v>
       </c>
-      <c r="I14" s="46">
+      <c r="I14" s="33">
         <f t="shared" si="0"/>
         <v>0.40165845679677209</v>
       </c>
